--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE46962E-B150-A44E-8C3B-1C55D99A36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF597483-9A7E-B143-9A0C-8A4BC9DDBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$235</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -446,12 +446,6 @@
     <t>Sabatier reaction methanation unit construction</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 200 bar</t>
-  </si>
-  <si>
     <t>production of nickel-based catalyst for methanation</t>
   </si>
   <si>
@@ -588,6 +582,12 @@
   </si>
   <si>
     <t>electricity production, from combined cycle plant, synthetic natural gas, post, pipeline 200km, storage 1000m/RER U</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,18 +1027,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1077,12 +1078,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1123,9 +1124,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1149,10 +1150,10 @@
         <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1403,13 +1404,13 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1921,9 +1922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="5">
         <v>0.10468468468468467</v>
@@ -1938,10 +1939,10 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2113,15 +2114,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2161,12 +2164,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2207,9 +2210,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2233,10 +2236,10 @@
         <v>41</v>
       </c>
       <c r="M52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -2487,13 +2490,13 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -3005,9 +3008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B77">
         <f>2.75*B78*0.9</f>
@@ -3035,9 +3038,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" s="5">
         <v>0.10468468468468467</v>
@@ -3052,10 +3055,10 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -3256,15 +3259,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3280,15 +3284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -3312,12 +3316,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -3433,9 +3437,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3459,12 +3463,12 @@
         <v>41</v>
       </c>
       <c r="K98" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3488,15 +3492,15 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B100">
         <v>0.38400000000000001</v>
@@ -3523,12 +3527,12 @@
         <v>107</v>
       </c>
       <c r="K100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B101">
         <v>8.2699999999999996E-11</v>
@@ -3558,10 +3562,10 @@
         <v>105</v>
       </c>
       <c r="L101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -3841,12 +3845,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -3855,7 +3860,7 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>1</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>2</v>
       </c>
@@ -3883,7 +3888,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>4</v>
       </c>
@@ -3897,7 +3902,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +3916,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>8</v>
       </c>
@@ -3925,12 +3930,12 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3939,7 +3944,7 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>31</v>
       </c>
@@ -3953,7 +3958,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3969,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>12</v>
       </c>
@@ -4026,9 +4031,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -4055,7 +4060,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>135</v>
       </c>
@@ -4118,9 +4123,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B123" s="8">
         <f>1.972/0.717</f>
@@ -4174,7 +4179,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B124" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4190,7 +4195,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I124" s="7">
         <v>2</v>
@@ -4226,9 +4231,9 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B125" s="7">
         <f>0.00006/0.717</f>
@@ -4244,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
@@ -4279,7 +4284,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -4288,12 +4293,12 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4302,7 +4307,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>1</v>
       </c>
@@ -4316,7 +4321,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4335,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>4</v>
       </c>
@@ -4344,7 +4349,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>6</v>
       </c>
@@ -4358,7 +4363,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
@@ -4372,12 +4377,12 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4386,7 +4391,7 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>31</v>
       </c>
@@ -4400,7 +4405,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>11</v>
       </c>
@@ -4411,7 +4416,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>12</v>
       </c>
@@ -4473,9 +4478,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -4502,7 +4507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>135</v>
       </c>
@@ -4565,9 +4570,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B139" s="7">
         <f>1.972/0.717</f>
@@ -4583,7 +4588,7 @@
         <v>22</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I139" s="7">
         <v>2</v>
@@ -4621,7 +4626,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B140" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -4637,7 +4642,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4673,9 +4678,9 @@
       </c>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B141" s="7">
         <f>0.00006/0.717</f>
@@ -4691,7 +4696,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
@@ -4726,7 +4731,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -4734,12 +4739,12 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4748,7 +4753,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>1</v>
       </c>
@@ -4762,7 +4767,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4781,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
@@ -4790,7 +4795,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>6</v>
       </c>
@@ -4804,7 +4809,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>8</v>
       </c>
@@ -4818,12 +4823,12 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4832,7 +4837,7 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>31</v>
       </c>
@@ -4846,7 +4851,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4862,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>12</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="str">
         <f>B143</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
@@ -4949,7 +4954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>135</v>
       </c>
@@ -5012,9 +5017,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B155" s="7">
         <f>1.972/0.717</f>
@@ -5030,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I155" s="7">
         <v>2</v>
@@ -5068,7 +5073,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B156" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5084,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -5120,9 +5125,9 @@
       </c>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B157" s="7">
         <f>0.00006/0.717</f>
@@ -5138,7 +5143,7 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
@@ -5173,7 +5178,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -5181,12 +5186,12 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
     </row>
-    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5195,7 +5200,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>1</v>
       </c>
@@ -5209,12 +5214,12 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5223,7 +5228,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>4</v>
       </c>
@@ -5237,7 +5242,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5256,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>8</v>
       </c>
@@ -5265,12 +5270,12 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5279,12 +5284,12 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5293,7 +5298,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>11</v>
       </c>
@@ -5304,7 +5309,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f>B159</f>
         <v>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</v>
@@ -5397,9 +5402,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B170" s="7">
         <v>2.75</v>
@@ -5462,7 +5467,7 @@
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B171" s="7">
         <v>0.5</v>
@@ -5477,7 +5482,7 @@
         <v>22</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -5513,9 +5518,9 @@
       </c>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B172" s="7">
         <v>1.55</v>
@@ -5530,10 +5535,10 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
@@ -5569,9 +5574,9 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B173" s="14">
         <f>0.0833/51.3</f>
@@ -5587,10 +5592,10 @@
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -5626,16 +5631,16 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B174" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>109</v>
@@ -5644,10 +5649,10 @@
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -5695,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -5703,12 +5708,12 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5717,7 +5722,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>1</v>
       </c>
@@ -5731,12 +5736,12 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5745,7 +5750,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5759,7 +5764,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
@@ -5773,7 +5778,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -5787,12 +5792,12 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5801,12 +5806,12 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5815,7 +5820,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>11</v>
       </c>
@@ -5826,7 +5831,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>12</v>
       </c>
@@ -5888,7 +5893,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="str">
         <f>B176</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
@@ -5919,9 +5924,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B187" s="7">
         <v>2.75</v>
@@ -5936,7 +5941,7 @@
         <v>22</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I187" s="7">
         <v>2</v>
@@ -5984,7 +5989,7 @@
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B188" s="7">
         <v>0.5</v>
@@ -5999,7 +6004,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -6035,9 +6040,9 @@
       </c>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B189" s="7">
         <v>1.55</v>
@@ -6052,10 +6057,10 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
@@ -6091,9 +6096,9 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B190" s="14">
         <f>0.0833/51.3</f>
@@ -6109,10 +6114,10 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
@@ -6148,16 +6153,16 @@
       </c>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B191" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>109</v>
@@ -6166,10 +6171,10 @@
         <v>22</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I191" s="7">
         <v>2</v>
@@ -6217,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -6225,12 +6230,12 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -6239,7 +6244,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>1</v>
       </c>
@@ -6253,12 +6258,12 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6267,7 +6272,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>4</v>
       </c>
@@ -6281,7 +6286,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>6</v>
       </c>
@@ -6295,7 +6300,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>8</v>
       </c>
@@ -6309,12 +6314,12 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6323,12 +6328,12 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6337,7 +6342,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6353,7 @@
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>12</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="str">
         <f>B193</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
@@ -6441,9 +6446,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B204" s="7">
         <v>2.75</v>
@@ -6458,7 +6463,7 @@
         <v>22</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I204" s="7">
         <v>2</v>
@@ -6506,7 +6511,7 @@
     </row>
     <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B205" s="7">
         <v>0.5</v>
@@ -6521,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>
@@ -6557,9 +6562,9 @@
       </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B206" s="7">
         <v>1.55</v>
@@ -6574,10 +6579,10 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -6613,9 +6618,9 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B207" s="14">
         <f>0.0833/51.3</f>
@@ -6631,10 +6636,10 @@
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
@@ -6670,16 +6675,16 @@
       </c>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B208" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>109</v>
@@ -6688,10 +6693,10 @@
         <v>22</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I208" s="7">
         <v>2</v>
@@ -6739,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -6747,7 +6752,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>0</v>
       </c>
@@ -6761,7 +6766,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>1</v>
       </c>
@@ -6775,7 +6780,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>2</v>
       </c>
@@ -6789,7 +6794,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6808,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>6</v>
       </c>
@@ -6817,7 +6822,7 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>8</v>
       </c>
@@ -6831,7 +6836,7 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
@@ -6845,7 +6850,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>11</v>
       </c>
@@ -6856,7 +6861,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>12</v>
       </c>
@@ -6918,7 +6923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>135</v>
       </c>
@@ -6944,12 +6949,12 @@
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
       <c r="T219" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B220" s="7">
         <v>5940</v>
@@ -6964,7 +6969,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I220" s="7">
         <v>2</v>
@@ -7009,9 +7014,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B221" s="7">
         <v>660</v>
@@ -7026,7 +7031,7 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
@@ -7061,7 +7066,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -7069,12 +7074,12 @@
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -7083,7 +7088,7 @@
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>1</v>
       </c>
@@ -7097,12 +7102,12 @@
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7111,7 +7116,7 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>4</v>
       </c>
@@ -7125,7 +7130,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>6</v>
       </c>
@@ -7139,7 +7144,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>8</v>
       </c>
@@ -7153,7 +7158,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>31</v>
       </c>
@@ -7167,7 +7172,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>11</v>
       </c>
@@ -7178,7 +7183,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>12</v>
       </c>
@@ -7240,9 +7245,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B232" s="7">
         <v>1</v>
@@ -7257,7 +7262,7 @@
         <v>19</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -7266,10 +7271,10 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
       <c r="T232" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>28</v>
       </c>
@@ -7331,9 +7336,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B234" s="7">
         <v>0.19</v>
@@ -7348,7 +7353,7 @@
         <v>22</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I234" s="7">
         <v>2</v>
@@ -7383,7 +7388,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
@@ -7392,7 +7397,13 @@
       <c r="P235" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B200" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
     <hyperlink ref="B183" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF597483-9A7E-B143-9A0C-8A4BC9DDBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB0CF3-42E5-F84D-AFBD-F03AB20A1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="175">
   <si>
     <t>Activity</t>
   </si>
@@ -149,9 +149,6 @@
     <t>range of values from different references</t>
   </si>
   <si>
-    <t>Sodium hydroxide, 50% in H2O, production mix, at plant/RER U</t>
-  </si>
-  <si>
     <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>CCS Europe 2025::Wood</t>
   </si>
   <si>
-    <t>Disposal, solvents mixture, 16.5% water, to hazardous waste incineration/CH U</t>
-  </si>
-  <si>
     <t>Moser et al. (2010)</t>
   </si>
   <si>
@@ -305,57 +299,36 @@
     <t>RECCS 2007</t>
   </si>
   <si>
-    <t>Pump 40W, at plant/CH/I U</t>
-  </si>
-  <si>
     <t>n_pump = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for pump, 40W</t>
   </si>
   <si>
-    <t>Monoethanolamine, at plant/RER U</t>
-  </si>
-  <si>
     <t>market for monoethanolamine</t>
   </si>
   <si>
-    <t>Liquid storage tank, chemicals, organics/CH/I U</t>
-  </si>
-  <si>
     <t>n_tank = V_total*lifetime_ratio/(V_ref*lifetime plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for liquid storage tank, chemicals, organics</t>
   </si>
   <si>
-    <t>Gas turbine, 10MWe, at production plant/RER/I U</t>
-  </si>
-  <si>
     <t>n_GT = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for gas turbine, 10MW electrical</t>
   </si>
   <si>
-    <t>Charcoal, at plant/GLO U</t>
-  </si>
-  <si>
     <t>market for charcoal</t>
   </si>
   <si>
-    <t>Absorption chiller 100kW/CH/I U</t>
-  </si>
-  <si>
     <t>n_absorption chiller = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for absorption chiller, 100kW</t>
   </si>
   <si>
-    <t>Heat exchanger of cogen unit 160kWe/RER/I U</t>
-  </si>
-  <si>
     <t>n_HX = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
@@ -536,9 +509,6 @@
     <t>heat pump, heat and power co-generation unit, 160kW electrical</t>
   </si>
   <si>
-    <t>methane, from electrochemical methanation, with carbon from atmospheric carbon dioxide capture</t>
-  </si>
-  <si>
     <t>SNG from hydrogen + carbon dioxide from air</t>
   </si>
   <si>
@@ -548,33 +518,15 @@
     <t>Originally in cubic meter. Composition: 96% CH4, 4% carbon dioxide, Density of synthetic methane: .717 kg/Nm3, LHV ~47.5 MJ/kg. Using the "carbon dioxide methanation - sewage sludge - PSA - worst - BFB_FB" configuration. Source: Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
-    <t>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</t>
-  </si>
-  <si>
     <t>Based on stoichiometry, for every kilogram of methane produced, the system would consume approximately 2.75 kilograms of carbon dioxide and 0.5 kilograms of H2, and produce approximately 2.25 kilograms of water. Rest of info Adapted from BioCat II project Annex I 2014. Consider 51.3 kg CH4 per full-load hour. Reactor heat re-circulated at the wastewater treatment plant, hence not considered here. Infrastructure missing.</t>
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2</t>
   </si>
   <si>
-    <t>carbon dioxide capture/synthetic natural gas, post, 200km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>carbon dioxide capture/synthetic natural gas, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
-    <t>carbon dioxide storage/synthetic natural gas, post, 200km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>carbon dioxide storage/synthetic natural gas, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
     <t>electricity production, from combined cycle plant, synthetic natural gas</t>
   </si>
   <si>
-    <t>electricity production, from combined cycle plant, synthetic natural gas/RER U</t>
-  </si>
-  <si>
     <t>measurement, single combined cycle power plant</t>
   </si>
   <si>
@@ -588,6 +540,27 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at synthetic natural gas plant, post, 200km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage at synthetic natural gas plant, post, 200km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>market group for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>ENTSO-E</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>methane, from biological methanation, with carbon from atmosphere</t>
   </si>
 </sst>
 </file>
@@ -1002,11 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +991,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1027,18 +999,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1054,15 +1026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1078,12 +1050,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1112,21 +1084,15 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1138,24 +1104,18 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>4.6073299999999991E-12</v>
@@ -1164,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1178,16 +1138,16 @@
       <c r="I12">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>4.6479999999999997E-9</v>
@@ -1196,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1210,16 +1170,16 @@
       <c r="I13">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>7.0301000000000005E-7</v>
@@ -1228,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1242,16 +1202,16 @@
       <c r="I14">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>5.3800599999999993E-9</v>
@@ -1260,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1274,16 +1234,16 @@
       <c r="I15">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>3.0734899999999997E-12</v>
@@ -1292,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -1306,16 +1266,16 @@
       <c r="I16">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>5.3800599999999993E-6</v>
@@ -1324,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -1338,26 +1298,26 @@
       <c r="I17">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B18">
-        <f>2.75*B36</f>
-        <v>0.28788288288288283</v>
+        <f>B36*47.5*0.054</f>
+        <v>0.31354838709677418</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -1371,16 +1331,16 @@
       <c r="I18">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>1.2782000000000001E-5</v>
@@ -1389,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1403,16 +1363,16 @@
       <c r="I19">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>5.8099999999999994E-6</v>
@@ -1421,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1435,16 +1395,16 @@
       <c r="I20">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>1.6849E-16</v>
@@ -1453,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1467,16 +1427,16 @@
       <c r="I21">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>33</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>7.9596999999999994E-6</v>
@@ -1485,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1499,16 +1459,16 @@
       <c r="I22">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1.9231099999999998E-7</v>
@@ -1517,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -1531,25 +1491,25 @@
       <c r="I23">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>3.0502500000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -1563,16 +1523,16 @@
       <c r="I24">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>4.6073299999999995E-6</v>
@@ -1581,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -1595,16 +1555,16 @@
       <c r="I25">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>1.7429999999999998E-10</v>
@@ -1613,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1627,16 +1587,16 @@
       <c r="I26">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>5.8099999999999994E-6</v>
@@ -1645,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -1659,16 +1619,16 @@
       <c r="I27">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s">
         <v>36</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>1.5803199999999998E-4</v>
@@ -1677,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -1691,16 +1651,16 @@
       <c r="I28">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>4.6479999999999997E-8</v>
@@ -1709,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -1723,16 +1683,16 @@
       <c r="I29">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>2.9049999999999997E-6</v>
@@ -1741,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -1755,16 +1715,16 @@
       <c r="I30">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>6.6814999999999995E-6</v>
@@ -1773,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
@@ -1787,16 +1747,16 @@
       <c r="I31">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4.0960499999999995E-6</v>
@@ -1805,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -1819,16 +1779,16 @@
       <c r="I32">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>9.2959999999999993E-8</v>
@@ -1837,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -1851,16 +1811,16 @@
       <c r="I33">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>33</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>2.9049999999999997E-6</v>
@@ -1869,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>25</v>
@@ -1883,16 +1843,16 @@
       <c r="I34">
         <v>4.7655089902162509E-2</v>
       </c>
-      <c r="K34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>8.714999999999999E-9</v>
@@ -1901,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>25</v>
@@ -1915,19 +1875,20 @@
       <c r="I35">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B36" s="5">
-        <v>0.10468468468468467</v>
+        <f>3.6/0.62/47.5</f>
+        <v>0.12224108658743633</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1938,13 +1899,13 @@
       <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="K36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>1.3246799999999999E-11</v>
@@ -1967,13 +1928,13 @@
       <c r="H37">
         <v>2.28E-12</v>
       </c>
-      <c r="K37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1.4525000000000001E-5</v>
@@ -1999,16 +1960,16 @@
       <c r="I38">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>38</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>39</v>
       </c>
       <c r="B39">
         <v>1.1619999999999999E-5</v>
@@ -2034,16 +1995,16 @@
       <c r="I39">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>2.9049999999999998</v>
@@ -2069,17 +2030,14 @@
       <c r="I40">
         <v>0.45814536593707761</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>36</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2107,24 +2065,22 @@
       <c r="I41">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>33</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2140,15 +2096,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2164,12 +2120,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2198,21 +2154,21 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2224,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2233,15 +2189,15 @@
         <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>4.6073299999999991E-12</v>
@@ -2250,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
@@ -2265,15 +2221,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>4.6479999999999997E-9</v>
@@ -2282,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
@@ -2303,9 +2259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>7.0301000000000005E-7</v>
@@ -2314,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
         <v>25</v>
@@ -2335,9 +2291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>5.3800599999999993E-9</v>
@@ -2346,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
         <v>25</v>
@@ -2361,15 +2317,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>3.0734899999999997E-12</v>
@@ -2378,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
@@ -2393,15 +2349,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>5.3800599999999993E-6</v>
@@ -2410,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
         <v>25</v>
@@ -2425,25 +2381,25 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B59">
-        <f>2.75*B78*0.1</f>
-        <v>2.8788288288288284E-2</v>
+        <f>B78*47.5*0.054*0.1</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
         <v>25</v>
@@ -2458,15 +2414,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>1.2782000000000001E-5</v>
@@ -2475,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -2490,15 +2446,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>5.8099999999999994E-6</v>
@@ -2507,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
         <v>25</v>
@@ -2522,15 +2478,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>1.6849E-16</v>
@@ -2539,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
         <v>25</v>
@@ -2560,9 +2516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>7.9596999999999994E-6</v>
@@ -2571,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
@@ -2586,15 +2542,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>1.9231099999999998E-7</v>
@@ -2603,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
@@ -2618,24 +2574,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>3.0502500000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -2650,15 +2606,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>4.6073299999999995E-6</v>
@@ -2667,7 +2623,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -2682,15 +2638,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>1.7429999999999998E-10</v>
@@ -2699,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
         <v>25</v>
@@ -2714,15 +2670,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>5.8099999999999994E-6</v>
@@ -2731,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
         <v>25</v>
@@ -2752,9 +2708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>5.7925699999999993E-5</v>
@@ -2763,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -2778,15 +2734,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>4.6479999999999997E-8</v>
@@ -2795,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>25</v>
@@ -2816,9 +2772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71">
         <v>2.9049999999999997E-6</v>
@@ -2827,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
         <v>25</v>
@@ -2842,15 +2798,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <v>6.6814999999999995E-6</v>
@@ -2859,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
@@ -2874,15 +2830,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>4.0960499999999995E-6</v>
@@ -2891,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
         <v>25</v>
@@ -2906,15 +2862,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <v>9.2959999999999993E-8</v>
@@ -2923,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
         <v>25</v>
@@ -2944,9 +2900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
         <v>2.9049999999999997E-6</v>
@@ -2955,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -2970,15 +2926,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>8.714999999999999E-9</v>
@@ -2987,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
         <v>25</v>
@@ -3002,19 +2958,19 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B77">
-        <f>2.75*B78*0.9</f>
-        <v>0.25909459459459455</v>
+        <f>B78*47.5*0.054*0.9</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -3035,15 +2991,16 @@
         <v>5.04E-2</v>
       </c>
       <c r="K77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B78" s="5">
-        <v>0.10468468468468467</v>
+        <f>3.6/0.54/47.5</f>
+        <v>0.14035087719298245</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -3055,12 +3012,12 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79">
         <v>4.4736999999999999E-4</v>
@@ -3084,12 +3041,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>1.27239E-11</v>
@@ -3113,12 +3070,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81">
         <v>1.4525000000000001E-5</v>
@@ -3145,15 +3102,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>38</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>39</v>
       </c>
       <c r="B82">
         <v>1.1619999999999999E-5</v>
@@ -3180,15 +3137,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>2.9049999999999998</v>
@@ -3221,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -3259,16 +3216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3284,15 +3240,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3308,20 +3264,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3347,21 +3303,18 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
       </c>
       <c r="K94" t="s">
-        <v>79</v>
-      </c>
-      <c r="L94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>1.2300000000000001E-4</v>
@@ -3370,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F95" t="s">
         <v>25</v>
@@ -3382,12 +3335,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>6.0000000000000002E-6</v>
@@ -3396,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F96" t="s">
         <v>25</v>
@@ -3408,21 +3361,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -3434,12 +3387,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3451,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -3460,15 +3413,12 @@
         <v>100</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3492,21 +3442,18 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>168</v>
-      </c>
-      <c r="K99" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B100">
         <v>0.38400000000000001</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -3524,15 +3471,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J100" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B101">
         <v>8.2699999999999996E-11</v>
@@ -3556,18 +3503,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J101" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s">
-        <v>105</v>
-      </c>
-      <c r="L101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>7.4400000000000002E-10</v>
@@ -3591,18 +3535,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>102</v>
-      </c>
-      <c r="L102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>8.2600000000000002E-5</v>
@@ -3626,18 +3567,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s">
-        <v>100</v>
-      </c>
-      <c r="L103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>3.3099999999999999E-10</v>
@@ -3661,18 +3599,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s">
-        <v>97</v>
-      </c>
-      <c r="L104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B105">
         <v>5.1400000000000003E-12</v>
@@ -3696,18 +3631,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J105" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s">
-        <v>94</v>
-      </c>
-      <c r="L105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>2.8400000000000002E-4</v>
@@ -3731,18 +3663,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K106" t="s">
-        <v>92</v>
-      </c>
-      <c r="L106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107">
         <v>5.7899999999999997E-10</v>
@@ -3766,18 +3695,15 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s">
-        <v>89</v>
-      </c>
-      <c r="L107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108">
         <v>3.0400000000000002E-4</v>
@@ -3801,18 +3727,15 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s">
-        <v>37</v>
-      </c>
-      <c r="L108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B109">
         <v>-2.2699999999999999E-4</v>
@@ -3836,22 +3759,18 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -3860,7 +3779,7 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>1</v>
       </c>
@@ -3874,7 +3793,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>2</v>
       </c>
@@ -3888,7 +3807,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>4</v>
       </c>
@@ -3902,7 +3821,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +3835,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>8</v>
       </c>
@@ -3930,12 +3849,12 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3944,12 +3863,12 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3958,7 +3877,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>11</v>
       </c>
@@ -3969,7 +3888,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>12</v>
       </c>
@@ -4001,39 +3920,39 @@
         <v>16</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -4057,12 +3976,12 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="T121" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B122" s="7">
         <f>0.000000283/0.717</f>
@@ -4123,9 +4042,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B123" s="8">
         <f>1.972/0.717</f>
@@ -4179,7 +4098,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B124" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4195,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I124" s="7">
         <v>2</v>
@@ -4231,9 +4150,9 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B125" s="7">
         <f>0.00006/0.717</f>
@@ -4249,7 +4168,7 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
@@ -4284,7 +4203,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -4293,12 +4212,12 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4307,7 +4226,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4240,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
@@ -4335,7 +4254,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4268,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>6</v>
       </c>
@@ -4363,7 +4282,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
@@ -4377,12 +4296,12 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4391,12 +4310,12 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4405,7 +4324,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>11</v>
       </c>
@@ -4416,7 +4335,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>12</v>
       </c>
@@ -4448,39 +4367,39 @@
         <v>16</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S136" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -4504,12 +4423,12 @@
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
       <c r="T137" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B138" s="7">
         <f>0.000000283/0.717</f>
@@ -4570,9 +4489,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B139" s="7">
         <f>1.972/0.717</f>
@@ -4588,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I139" s="7">
         <v>2</v>
@@ -4626,7 +4545,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B140" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -4642,7 +4561,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4678,9 +4597,9 @@
       </c>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B141" s="7">
         <f>0.00006/0.717</f>
@@ -4696,7 +4615,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
@@ -4731,7 +4650,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -4739,12 +4658,12 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4753,7 +4672,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4686,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>2</v>
       </c>
@@ -4781,7 +4700,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4714,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>6</v>
       </c>
@@ -4809,7 +4728,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>8</v>
       </c>
@@ -4823,12 +4742,12 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4837,12 +4756,12 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4851,7 +4770,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>11</v>
       </c>
@@ -4862,7 +4781,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>12</v>
       </c>
@@ -4894,37 +4813,37 @@
         <v>16</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O152" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P152" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S152" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="str">
         <f>B143</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
@@ -4951,12 +4870,12 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="T153" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B154" s="7">
         <f>0.000000283/0.717</f>
@@ -5017,9 +4936,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B155" s="7">
         <f>1.972/0.717</f>
@@ -5035,7 +4954,7 @@
         <v>22</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I155" s="7">
         <v>2</v>
@@ -5073,7 +4992,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B156" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5089,7 +5008,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -5125,9 +5044,9 @@
       </c>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B157" s="7">
         <f>0.00006/0.717</f>
@@ -5143,7 +5062,7 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
@@ -5178,7 +5097,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -5186,12 +5105,12 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
     </row>
-    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5200,7 +5119,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>1</v>
       </c>
@@ -5214,12 +5133,12 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5228,7 +5147,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>4</v>
       </c>
@@ -5242,7 +5161,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5175,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>8</v>
       </c>
@@ -5270,12 +5189,12 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5284,12 +5203,12 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5298,7 +5217,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5228,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>12</v>
       </c>
@@ -5341,40 +5260,40 @@
         <v>16</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O168" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P168" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S168" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f>B159</f>
-        <v>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</v>
+        <v>methane, from biological methanation, with carbon from atmosphere</v>
       </c>
       <c r="B169" s="7">
         <v>1</v>
@@ -5399,12 +5318,12 @@
       <c r="O169" s="8"/>
       <c r="P169" s="8"/>
       <c r="T169" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B170" s="7">
         <v>2.75</v>
@@ -5467,7 +5386,7 @@
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B171" s="7">
         <v>0.5</v>
@@ -5482,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -5518,9 +5437,9 @@
       </c>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B172" s="7">
         <v>1.55</v>
@@ -5535,10 +5454,10 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
@@ -5574,9 +5493,9 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B173" s="14">
         <f>0.0833/51.3</f>
@@ -5592,10 +5511,10 @@
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -5631,28 +5550,28 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B174" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -5700,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -5708,12 +5627,12 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5722,7 +5641,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>1</v>
       </c>
@@ -5736,12 +5655,12 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5750,7 +5669,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5683,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5697,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -5792,12 +5711,12 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5806,12 +5725,12 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5820,7 +5739,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>11</v>
       </c>
@@ -5831,7 +5750,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>12</v>
       </c>
@@ -5863,37 +5782,37 @@
         <v>16</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M185" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O185" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P185" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S185" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="str">
         <f>B176</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
@@ -5921,12 +5840,12 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="T186" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B187" s="7">
         <v>2.75</v>
@@ -5941,7 +5860,7 @@
         <v>22</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I187" s="7">
         <v>2</v>
@@ -5989,7 +5908,7 @@
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B188" s="7">
         <v>0.5</v>
@@ -6004,7 +5923,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -6040,9 +5959,9 @@
       </c>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B189" s="7">
         <v>1.55</v>
@@ -6057,10 +5976,10 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
@@ -6096,9 +6015,9 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B190" s="14">
         <f>0.0833/51.3</f>
@@ -6114,10 +6033,10 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
@@ -6153,28 +6072,28 @@
       </c>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B191" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I191" s="7">
         <v>2</v>
@@ -6222,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -6230,12 +6149,12 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -6244,7 +6163,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>1</v>
       </c>
@@ -6258,12 +6177,12 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6272,7 +6191,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6205,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>6</v>
       </c>
@@ -6300,7 +6219,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>8</v>
       </c>
@@ -6314,12 +6233,12 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6328,12 +6247,12 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6342,7 +6261,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>11</v>
       </c>
@@ -6353,7 +6272,7 @@
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>12</v>
       </c>
@@ -6385,37 +6304,37 @@
         <v>16</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O202" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P202" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S202" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="str">
         <f>B193</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
@@ -6443,12 +6362,12 @@
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
       <c r="T203" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B204" s="7">
         <v>2.75</v>
@@ -6463,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I204" s="7">
         <v>2</v>
@@ -6511,7 +6430,7 @@
     </row>
     <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B205" s="7">
         <v>0.5</v>
@@ -6526,7 +6445,7 @@
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>
@@ -6562,9 +6481,9 @@
       </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B206" s="7">
         <v>1.55</v>
@@ -6579,10 +6498,10 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -6618,9 +6537,9 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B207" s="14">
         <f>0.0833/51.3</f>
@@ -6636,10 +6555,10 @@
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
@@ -6675,28 +6594,28 @@
       </c>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B208" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I208" s="7">
         <v>2</v>
@@ -6744,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -6752,12 +6671,12 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
@@ -6766,7 +6685,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>1</v>
       </c>
@@ -6780,7 +6699,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6713,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6727,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>6</v>
       </c>
@@ -6822,7 +6741,7 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>8</v>
       </c>
@@ -6836,12 +6755,12 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6850,7 +6769,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>11</v>
       </c>
@@ -6861,7 +6780,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>12</v>
       </c>
@@ -6893,39 +6812,39 @@
         <v>16</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M218" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O218" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P218" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S218" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B219" s="7">
         <v>1</v>
@@ -6949,12 +6868,12 @@
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
       <c r="T219" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B220" s="7">
         <v>5940</v>
@@ -6969,7 +6888,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I220" s="7">
         <v>2</v>
@@ -7014,9 +6933,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B221" s="7">
         <v>660</v>
@@ -7031,7 +6950,7 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
@@ -7066,7 +6985,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -7074,12 +6993,12 @@
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -7088,7 +7007,7 @@
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>1</v>
       </c>
@@ -7102,12 +7021,12 @@
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7116,7 +7035,7 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7049,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>6</v>
       </c>
@@ -7144,7 +7063,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>8</v>
       </c>
@@ -7158,7 +7077,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>31</v>
       </c>
@@ -7172,7 +7091,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7102,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>12</v>
       </c>
@@ -7215,39 +7134,39 @@
         <v>16</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M231" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O231" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P231" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B232" s="7">
         <v>1</v>
@@ -7262,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -7271,10 +7190,10 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
       <c r="T232" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>28</v>
       </c>
@@ -7336,9 +7255,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B234" s="7">
         <v>0.19</v>
@@ -7353,7 +7272,7 @@
         <v>22</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I234" s="7">
         <v>2</v>
@@ -7388,7 +7307,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
@@ -7397,13 +7316,7 @@
       <c r="P235" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B200" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
     <hyperlink ref="B183" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
